--- a/src/attributions/attributions_saliency_traj_169.xlsx
+++ b/src/attributions/attributions_saliency_traj_169.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.000254586455412209</v>
+        <v>5.249092282610945e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>1.304094985243864e-05</v>
+        <v>2.415864400973078e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>9.192679135594517e-05</v>
+        <v>6.054946425138041e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>5.6785240303725e-05</v>
+        <v>4.241318310960196e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007353684632107615</v>
+        <v>8.651788448332809e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002150132204405963</v>
+        <v>8.457992407784332e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003120572655461729</v>
+        <v>6.995150215516333e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001265909522771835</v>
+        <v>1.929143536472111e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>4.917244950775057e-05</v>
+        <v>1.549610033180215e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002826898999046534</v>
+        <v>1.142101609730162e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001136747450800613</v>
+        <v>2.2868278392707e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001504441606812179</v>
+        <v>2.692956059036078e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>2.999870957864914e-06</v>
+        <v>3.984001523349434e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006580007029697299</v>
+        <v>1.562104216645821e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>4.936792902299203e-05</v>
+        <v>2.473822314641438e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.139436790253967e-05</v>
+        <v>5.079222319182009e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.848439807072282e-05</v>
+        <v>1.364180570817553e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>9.989229147322476e-05</v>
+        <v>1.328061625827104e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>9.173106809612364e-05</v>
+        <v>5.82255597691983e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>2.634143493196461e-05</v>
+        <v>8.770181011641398e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>3.674824256449938e-05</v>
+        <v>2.206525323344977e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001931240694830194</v>
+        <v>2.930267783085583e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.33269708789885e-05</v>
+        <v>8.441198588116094e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>2.33715745707741e-05</v>
+        <v>1.05556455309852e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.675231710076332e-06</v>
+        <v>1.739532081046491e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.039019025483867e-05</v>
+        <v>5.972760391159682e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.70886732020881e-05</v>
+        <v>1.491688863097806e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001211227936437353</v>
+        <v>8.43927773530595e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.072178752627224e-05</v>
+        <v>7.299015123862773e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.674968345672823e-05</v>
+        <v>1.254780045201187e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0001549463922856376</v>
+        <v>8.400967999477871e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.22443263232708e-05</v>
+        <v>1.893655280582607e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.062780211213976e-05</v>
+        <v>3.510722081045969e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.592866803752258e-05</v>
+        <v>1.569587766425684e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.681747178547084e-05</v>
+        <v>3.872808520100079e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.890169167192653e-05</v>
+        <v>7.161592293414287e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.315809539752081e-05</v>
+        <v>6.973217750783078e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.249445737514179e-06</v>
+        <v>1.383988364977995e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.578573761042207e-05</v>
+        <v>7.62643708185351e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.264993084594607e-05</v>
+        <v>4.516678473009961e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0001096964406315237</v>
+        <v>7.305948201974388e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.000116563038318418</v>
+        <v>3.280896180513082e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.774986933218315e-05</v>
+        <v>1.517989517196838e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>7.18693554517813e-05</v>
+        <v>2.343684855077299e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.788636109267827e-05</v>
+        <v>3.678174380183918e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>6.912624667165801e-05</v>
+        <v>5.489326213137247e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.004379974910989e-05</v>
+        <v>7.152125817810884e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.854475966771133e-05</v>
+        <v>8.256222940872249e-07</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.168005347717553e-05</v>
+        <v>2.086210224661045e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0003863496240228415</v>
+        <v>7.354401532211341e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>6.791082705603912e-05</v>
+        <v>6.665221008006483e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.467624967219308e-05</v>
+        <v>7.08586094333441e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.96343049639836e-05</v>
+        <v>1.083187044059741e-06</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.000179841517820023</v>
+        <v>4.029137016914319e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0001250691129826009</v>
+        <v>2.15779124346227e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.599114850454498e-06</v>
+        <v>1.065899596142117e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.986264452280011e-06</v>
+        <v>5.216615136305336e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>8.327034447574988e-05</v>
+        <v>1.567389517731499e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0002238059241790324</v>
+        <v>3.01955992654257e-07</v>
       </c>
       <c r="BH2" t="n">
-        <v>9.729165321914479e-05</v>
+        <v>5.219180820859037e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.070737875532359e-06</v>
+        <v>1.79165658664715e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.000157774644321762</v>
+        <v>9.461797390031279e-08</v>
       </c>
       <c r="BK2" t="n">
-        <v>9.58057280513458e-05</v>
+        <v>4.151674602326239e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.667185228550807e-05</v>
+        <v>1.374896328343311e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.501297760521993e-05</v>
+        <v>1.216459440911422e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0001019357514451258</v>
+        <v>1.234216142620426e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.040317329170648e-06</v>
+        <v>2.039591663560714e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>6.836386455688626e-05</v>
+        <v>1.397955884385738e-07</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.000138510440592654</v>
+        <v>1.082345988834277e-06</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0001388987293466926</v>
+        <v>2.742144260992063e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>7.470501441275701e-05</v>
+        <v>1.706694433778466e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0001189519389299676</v>
+        <v>2.872347977245227e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>7.17509028618224e-05</v>
+        <v>9.37820368562825e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.632125511416234e-06</v>
+        <v>9.107449841394555e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.328583650523797e-05</v>
+        <v>8.815732144284993e-09</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.238262383500114e-05</v>
+        <v>7.418372206302593e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0002577349077910185</v>
+        <v>8.355423233297188e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>4.840153997065499e-05</v>
+        <v>4.048854862048756e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.648018749430776e-05</v>
+        <v>4.839042503590463e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.000153906672494486</v>
+        <v>1.748751174091012e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>7.061334326863289e-05</v>
+        <v>7.308630756597267e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>3.765242217923515e-05</v>
+        <v>7.425832336593885e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.521625330904499e-05</v>
+        <v>1.497683570050867e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>7.611079126945697e-07</v>
+        <v>4.670127111694455e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.154598380206153e-05</v>
+        <v>1.099747532862239e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0001423331705154851</v>
+        <v>3.238286126361345e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>2.633442090882454e-05</v>
+        <v>4.766513939102879e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>6.197078619152308e-05</v>
+        <v>1.778048158485035e-06</v>
       </c>
       <c r="CK2" t="n">
-        <v>7.684836600674316e-05</v>
+        <v>3.15346073875844e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.343681626371108e-05</v>
+        <v>5.990908107378345e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>2.330074858036824e-05</v>
+        <v>3.561143557817559e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>4.002214336651377e-05</v>
+        <v>4.653263658838114e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0001098542270483449</v>
+        <v>2.053821390290977e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0001246474130311981</v>
+        <v>1.026516656565946e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001242801663465798</v>
+        <v>2.604060682642739e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>4.006150993518531e-05</v>
+        <v>9.832136527165858e-08</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0001074601095751859</v>
+        <v>1.362735474685906e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001225943560712039</v>
+        <v>1.384624829370296e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>9.556804798194207e-06</v>
+        <v>8.882853762770537e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.664050068939105e-05</v>
+        <v>8.152200280164834e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.04693039652193e-05</v>
+        <v>2.1156997718208e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.866997990873642e-05</v>
+        <v>2.433821464364883e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.389607314195018e-05</v>
+        <v>8.84037945070304e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0001490208378527313</v>
+        <v>2.161441216230742e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>4.68881216875161e-06</v>
+        <v>6.316018698271364e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.23154259705916e-05</v>
+        <v>1.363199771731161e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>6.736204522894695e-05</v>
+        <v>2.911155661422526e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.392846338101663e-05</v>
+        <v>8.125567774186493e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>9.859394049271941e-05</v>
+        <v>5.485396741278237e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>6.963349733268842e-05</v>
+        <v>2.1531119273277e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.869695890694857e-06</v>
+        <v>9.211257747665513e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>9.092967957258224e-05</v>
+        <v>9.813436008698773e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0002186493657063693</v>
+        <v>1.307653928961372e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.781039701309055e-05</v>
+        <v>1.579666241013911e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0001689121418166906</v>
+        <v>1.767174944689032e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.264616523461882e-05</v>
+        <v>2.010770913329907e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>8.45482645672746e-06</v>
+        <v>5.40644941793289e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>4.842677299166098e-07</v>
+        <v>7.088686288625468e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>7.568786531919613e-05</v>
+        <v>3.151274995616404e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>6.839682464487851e-05</v>
+        <v>9.958208465832286e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>5.401958333095536e-05</v>
+        <v>1.471509858674835e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>8.008202712517232e-05</v>
+        <v>1.768777906363539e-07</v>
       </c>
       <c r="DS2" t="n">
-        <v>6.802504503866658e-05</v>
+        <v>1.031712031362986e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>4.947428533341736e-05</v>
+        <v>2.097115157084772e-06</v>
       </c>
       <c r="DU2" t="n">
-        <v>5.901548502151854e-05</v>
+        <v>3.708140866365284e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>2.573125857452396e-05</v>
+        <v>4.263193204678828e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.721706914599054e-05</v>
+        <v>1.109968980017584e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>7.841707702027634e-05</v>
+        <v>7.718856068095192e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.099605964962393e-05</v>
+        <v>2.614095592434751e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>9.247787966160104e-05</v>
+        <v>4.959701982443221e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.000129747306345962</v>
+        <v>4.339133283792762e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>6.025065158610232e-05</v>
+        <v>8.109380360110663e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.88160390482517e-05</v>
+        <v>6.356490757752908e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>3.541437035892159e-05</v>
+        <v>8.665176210342906e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.753210957162082e-05</v>
+        <v>2.835877694451483e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>9.403376316186041e-05</v>
+        <v>1.061875195773609e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.574318230268545e-05</v>
+        <v>1.542109998808883e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.606079215183854e-05</v>
+        <v>1.300104827350879e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>7.657098467461765e-05</v>
+        <v>1.709448952169623e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>8.658505248604342e-05</v>
+        <v>3.892303539032582e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001131063254433684</v>
+        <v>3.830789410130819e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.998443804041017e-05</v>
+        <v>3.31840510625625e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001601280964678153</v>
+        <v>8.098965736280661e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.723886089166626e-05</v>
+        <v>2.10287203117332e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.676318763406016e-05</v>
+        <v>1.301816519116983e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001236449606949463</v>
+        <v>4.117928256164305e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>4.84174961457029e-05</v>
+        <v>1.050361061061267e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>7.322680903598666e-05</v>
+        <v>6.954056516406126e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>4.116370473639108e-05</v>
+        <v>4.977816274731595e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>3.299287345726043e-05</v>
+        <v>1.393942693539429e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>7.999580702744424e-05</v>
+        <v>1.762709189279121e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0001090461082640104</v>
+        <v>4.037556664115982e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0001421406195731834</v>
+        <v>3.98511747334851e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>2.882919943658635e-05</v>
+        <v>9.857394616119564e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.581799708423205e-05</v>
+        <v>2.413930587863433e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.500757207395509e-05</v>
+        <v>2.347548388570431e-06</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.4718457350682e-05</v>
+        <v>1.099234214052558e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0001502094237366691</v>
+        <v>3.821362952294294e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.180597882921575e-05</v>
+        <v>4.496655492403079e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.977124288212508e-05</v>
+        <v>1.814566985558486e-08</v>
       </c>
       <c r="FE2" t="n">
-        <v>7.408646342810243e-05</v>
+        <v>1.511655909780529e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.702599547570571e-05</v>
+        <v>2.853957084880676e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>5.603812314802781e-05</v>
+        <v>6.426460458897054e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>6.669966387562454e-05</v>
+        <v>1.32142131405999e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.728369145188481e-05</v>
+        <v>1.5841521872062e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>6.277739157667384e-05</v>
+        <v>5.894658443139633e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>6.25266766292043e-05</v>
+        <v>8.395975783059839e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>4.149299275013618e-05</v>
+        <v>1.755834091454744e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>6.142888014437631e-05</v>
+        <v>6.315450718830107e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>8.311434066854417e-05</v>
+        <v>2.525113359297393e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>9.079641313292086e-05</v>
+        <v>8.478817221657664e-07</v>
       </c>
       <c r="FP2" t="n">
-        <v>3.640731301857159e-05</v>
+        <v>1.847869134508073e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001169303504866548</v>
+        <v>1.057355984812602e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>8.257188164861873e-05</v>
+        <v>4.664779680751963e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0003289281448815018</v>
+        <v>1.937883098435123e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>9.977499576052651e-05</v>
+        <v>2.212112121924292e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.404306567565072e-05</v>
+        <v>5.856974894413725e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>4.38718416262418e-05</v>
+        <v>2.627247340569738e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>9.86061932053417e-05</v>
+        <v>1.648759644012898e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>5.551972571993247e-05</v>
+        <v>1.746491875564971e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.627984966035001e-05</v>
+        <v>1.956421874638181e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.172252970922273e-05</v>
+        <v>3.196387751813745e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>7.681632996536791e-05</v>
+        <v>1.750400588207413e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>6.086380744818598e-05</v>
+        <v>6.589405074919341e-07</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0001111631499952637</v>
+        <v>9.289563422498759e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001008030303637497</v>
+        <v>1.056485416484065e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.683950151549652e-05</v>
+        <v>1.402674479322741e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0001931120204972103</v>
+        <v>9.819170372793451e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>6.279301305767149e-05</v>
+        <v>7.511147487093695e-06</v>
       </c>
     </row>
     <row r="3">
